--- a/Code/Results/Cases/Case_4_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031496644988021</v>
+        <v>1.058283626036012</v>
       </c>
       <c r="D2">
-        <v>1.043208285273007</v>
+        <v>1.057068940049686</v>
       </c>
       <c r="E2">
-        <v>1.048457547731654</v>
+        <v>1.071917139059091</v>
       </c>
       <c r="F2">
-        <v>1.053837277623481</v>
+        <v>1.079183756150517</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062118108819269</v>
+        <v>1.053044569886574</v>
       </c>
       <c r="J2">
-        <v>1.052774443620072</v>
+        <v>1.063275649752193</v>
       </c>
       <c r="K2">
-        <v>1.054096773536322</v>
+        <v>1.059804921180433</v>
       </c>
       <c r="L2">
-        <v>1.059280678292026</v>
+        <v>1.074613038059806</v>
       </c>
       <c r="M2">
-        <v>1.064594266101876</v>
+        <v>1.081860473541999</v>
       </c>
       <c r="N2">
-        <v>1.020351583284931</v>
+        <v>1.024713022826894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037123600483114</v>
+        <v>1.059432031319226</v>
       </c>
       <c r="D3">
-        <v>1.047460485847669</v>
+        <v>1.057944592456873</v>
       </c>
       <c r="E3">
-        <v>1.053778776182807</v>
+        <v>1.073056454274037</v>
       </c>
       <c r="F3">
-        <v>1.05946312827533</v>
+        <v>1.080397916716307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064430687081573</v>
+        <v>1.053440013948049</v>
       </c>
       <c r="J3">
-        <v>1.056650971213513</v>
+        <v>1.064075903650775</v>
       </c>
       <c r="K3">
-        <v>1.057520085173981</v>
+        <v>1.060494179694598</v>
       </c>
       <c r="L3">
-        <v>1.0637668567112</v>
+        <v>1.075568202058651</v>
       </c>
       <c r="M3">
-        <v>1.069387762377398</v>
+        <v>1.082891692691552</v>
       </c>
       <c r="N3">
-        <v>1.021735386174326</v>
+        <v>1.024991502360548</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040677802646073</v>
+        <v>1.06017494666825</v>
       </c>
       <c r="D4">
-        <v>1.050148511412551</v>
+        <v>1.058510966221081</v>
       </c>
       <c r="E4">
-        <v>1.05714494272802</v>
+        <v>1.073793849110387</v>
       </c>
       <c r="F4">
-        <v>1.063022728928998</v>
+        <v>1.08118387992226</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065880730693312</v>
+        <v>1.053694514040123</v>
       </c>
       <c r="J4">
-        <v>1.059095252308806</v>
+        <v>1.064592971287492</v>
       </c>
       <c r="K4">
-        <v>1.059677139447977</v>
+        <v>1.06093930496347</v>
       </c>
       <c r="L4">
-        <v>1.066599334733301</v>
+        <v>1.076185849951639</v>
       </c>
       <c r="M4">
-        <v>1.072415676683629</v>
+        <v>1.083558704693529</v>
       </c>
       <c r="N4">
-        <v>1.022606809601975</v>
+        <v>1.02517117764816</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042152099507568</v>
+        <v>1.060487226575748</v>
       </c>
       <c r="D5">
-        <v>1.05126397564756</v>
+        <v>1.058749014571406</v>
       </c>
       <c r="E5">
-        <v>1.058542421987777</v>
+        <v>1.07410389428719</v>
       </c>
       <c r="F5">
-        <v>1.064500696568265</v>
+        <v>1.081514376526685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066479615323369</v>
+        <v>1.053801176207149</v>
       </c>
       <c r="J5">
-        <v>1.06010808444618</v>
+        <v>1.064810167627041</v>
       </c>
       <c r="K5">
-        <v>1.060570592369016</v>
+        <v>1.061126227583128</v>
       </c>
       <c r="L5">
-        <v>1.0677739404147</v>
+        <v>1.076445412477816</v>
       </c>
       <c r="M5">
-        <v>1.07367166867431</v>
+        <v>1.083839056210711</v>
       </c>
       <c r="N5">
-        <v>1.022967618334402</v>
+        <v>1.02524658885322</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042398499055673</v>
+        <v>1.060539657338726</v>
       </c>
       <c r="D6">
-        <v>1.051450428813217</v>
+        <v>1.058788980710869</v>
       </c>
       <c r="E6">
-        <v>1.058776051352649</v>
+        <v>1.074155954865353</v>
       </c>
       <c r="F6">
-        <v>1.064747792903235</v>
+        <v>1.081569872945652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066579553111869</v>
+        <v>1.05381906593335</v>
       </c>
       <c r="J6">
-        <v>1.060277295608106</v>
+        <v>1.064846625377814</v>
       </c>
       <c r="K6">
-        <v>1.060719837570924</v>
+        <v>1.0611576005281</v>
       </c>
       <c r="L6">
-        <v>1.06797023279958</v>
+        <v>1.076488988524149</v>
       </c>
       <c r="M6">
-        <v>1.073881581939449</v>
+        <v>1.083886124952481</v>
       </c>
       <c r="N6">
-        <v>1.023027880717072</v>
+        <v>1.025259243441272</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040697579283804</v>
+        <v>1.060179119529886</v>
       </c>
       <c r="D7">
-        <v>1.050163472823271</v>
+        <v>1.058514147251188</v>
       </c>
       <c r="E7">
-        <v>1.057163684293972</v>
+        <v>1.073797991773685</v>
       </c>
       <c r="F7">
-        <v>1.063042549188682</v>
+        <v>1.081188295727562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065888774627489</v>
+        <v>1.053695940560123</v>
       </c>
       <c r="J7">
-        <v>1.059108842986515</v>
+        <v>1.064595874177678</v>
       </c>
       <c r="K7">
-        <v>1.059689129681958</v>
+        <v>1.060941803449511</v>
       </c>
       <c r="L7">
-        <v>1.066615092530623</v>
+        <v>1.076189318617561</v>
       </c>
       <c r="M7">
-        <v>1.072432524958949</v>
+        <v>1.083562451000144</v>
       </c>
       <c r="N7">
-        <v>1.022611652242308</v>
+        <v>1.025172185784595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033416832530509</v>
+        <v>1.058671772963881</v>
       </c>
       <c r="D8">
-        <v>1.044658846077406</v>
+        <v>1.057364919099344</v>
       </c>
       <c r="E8">
-        <v>1.050272316749557</v>
+        <v>1.072302138879742</v>
       </c>
       <c r="F8">
-        <v>1.055755786892966</v>
+        <v>1.079594021734451</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062909490243719</v>
+        <v>1.053178497748706</v>
       </c>
       <c r="J8">
-        <v>1.054098178014884</v>
+        <v>1.063546255043376</v>
       </c>
       <c r="K8">
-        <v>1.055266046215872</v>
+        <v>1.06003803998313</v>
       </c>
       <c r="L8">
-        <v>1.06081179926039</v>
+        <v>1.074935924981564</v>
       </c>
       <c r="M8">
-        <v>1.066229981460241</v>
+        <v>1.082209032374974</v>
       </c>
       <c r="N8">
-        <v>1.020824340949976</v>
+        <v>1.024807243937719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019879090669743</v>
+        <v>1.056014201032121</v>
       </c>
       <c r="D9">
-        <v>1.034444007865248</v>
+        <v>1.055338040625823</v>
       </c>
       <c r="E9">
-        <v>1.037501132937938</v>
+        <v>1.06966760656963</v>
       </c>
       <c r="F9">
-        <v>1.042257338972321</v>
+        <v>1.076787112510216</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057286142210709</v>
+        <v>1.052256121220701</v>
       </c>
       <c r="J9">
-        <v>1.044748881408827</v>
+        <v>1.061690915490965</v>
       </c>
       <c r="K9">
-        <v>1.047001923430276</v>
+        <v>1.058438799351482</v>
       </c>
       <c r="L9">
-        <v>1.05001373117921</v>
+        <v>1.072724130918441</v>
       </c>
       <c r="M9">
-        <v>1.054700104164921</v>
+        <v>1.079822136643628</v>
       </c>
       <c r="N9">
-        <v>1.017481207551716</v>
+        <v>1.024160185417292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010312095561878</v>
+        <v>1.054241437317015</v>
       </c>
       <c r="D10">
-        <v>1.027243661252032</v>
+        <v>1.053985559207882</v>
       </c>
       <c r="E10">
-        <v>1.028507622655438</v>
+        <v>1.067912101718148</v>
       </c>
       <c r="F10">
-        <v>1.032754858098994</v>
+        <v>1.074917389003522</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053258071275118</v>
+        <v>1.051634067082671</v>
       </c>
       <c r="J10">
-        <v>1.038122466075064</v>
+        <v>1.060450092673482</v>
       </c>
       <c r="K10">
-        <v>1.041137849228873</v>
+        <v>1.05736810471349</v>
       </c>
       <c r="L10">
-        <v>1.042380557722888</v>
+        <v>1.071247427199458</v>
       </c>
       <c r="M10">
-        <v>1.046556868673274</v>
+        <v>1.078229469531714</v>
       </c>
       <c r="N10">
-        <v>1.015107170969241</v>
+        <v>1.023726126345329</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.006024564994314</v>
+        <v>1.053473542661607</v>
       </c>
       <c r="D11">
-        <v>1.024022230615076</v>
+        <v>1.053399621989384</v>
       </c>
       <c r="E11">
-        <v>1.024485354204777</v>
+        <v>1.067152136429127</v>
       </c>
       <c r="F11">
-        <v>1.02850557642298</v>
+        <v>1.074108129605765</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051440663419947</v>
+        <v>1.051363011933788</v>
       </c>
       <c r="J11">
-        <v>1.035148845111739</v>
+        <v>1.059911859670331</v>
       </c>
       <c r="K11">
-        <v>1.038504909720269</v>
+        <v>1.056903398505288</v>
       </c>
       <c r="L11">
-        <v>1.038959827802828</v>
+        <v>1.070607469772518</v>
       </c>
       <c r="M11">
-        <v>1.042909223034747</v>
+        <v>1.077539480288031</v>
       </c>
       <c r="N11">
-        <v>1.014040975134476</v>
+        <v>1.023537534644838</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004408657307723</v>
+        <v>1.053188269104125</v>
       </c>
       <c r="D12">
-        <v>1.022809042993154</v>
+        <v>1.053181932524826</v>
       </c>
       <c r="E12">
-        <v>1.022970725231912</v>
+        <v>1.066869877208678</v>
       </c>
       <c r="F12">
-        <v>1.026905543985939</v>
+        <v>1.07380758472052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050753936146609</v>
+        <v>1.051262073733321</v>
       </c>
       <c r="J12">
-        <v>1.034027599737684</v>
+        <v>1.059711792425879</v>
       </c>
       <c r="K12">
-        <v>1.037511926664282</v>
+        <v>1.056730621621374</v>
       </c>
       <c r="L12">
-        <v>1.037670688934511</v>
+        <v>1.070369679524328</v>
       </c>
       <c r="M12">
-        <v>1.041534813296509</v>
+        <v>1.077283133091768</v>
       </c>
       <c r="N12">
-        <v>1.013638846125916</v>
+        <v>1.023467386726176</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004756357099697</v>
+        <v>1.053249463238329</v>
       </c>
       <c r="D13">
-        <v>1.023070044911866</v>
+        <v>1.053228629759162</v>
       </c>
       <c r="E13">
-        <v>1.023296572514349</v>
+        <v>1.066930421626419</v>
       </c>
       <c r="F13">
-        <v>1.027249760960282</v>
+        <v>1.073872050375814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050901780420468</v>
+        <v>1.051283736925471</v>
       </c>
       <c r="J13">
-        <v>1.034268884497191</v>
+        <v>1.05975471404119</v>
       </c>
       <c r="K13">
-        <v>1.037725618785218</v>
+        <v>1.056767690297467</v>
       </c>
       <c r="L13">
-        <v>1.037948072013877</v>
+        <v>1.070420690049944</v>
       </c>
       <c r="M13">
-        <v>1.041830533078586</v>
+        <v>1.077338122921364</v>
       </c>
       <c r="N13">
-        <v>1.013725386076631</v>
+        <v>1.023482438066153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005891478917588</v>
+        <v>1.053449962753826</v>
       </c>
       <c r="D14">
-        <v>1.02392229320013</v>
+        <v>1.053381628658428</v>
       </c>
       <c r="E14">
-        <v>1.024360582535065</v>
+        <v>1.067128804276658</v>
       </c>
       <c r="F14">
-        <v>1.028373767842719</v>
+        <v>1.074083285458576</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051384140240155</v>
+        <v>1.051354673581546</v>
       </c>
       <c r="J14">
-        <v>1.035056509819408</v>
+        <v>1.059895324983703</v>
       </c>
       <c r="K14">
-        <v>1.038423140799428</v>
+        <v>1.056889120070569</v>
       </c>
       <c r="L14">
-        <v>1.038853652298682</v>
+        <v>1.070587815627237</v>
       </c>
       <c r="M14">
-        <v>1.042796019547775</v>
+        <v>1.077518291667522</v>
       </c>
       <c r="N14">
-        <v>1.014007861551328</v>
+        <v>1.023531738167162</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00658772495956</v>
+        <v>1.053573491332615</v>
       </c>
       <c r="D15">
-        <v>1.024445158646541</v>
+        <v>1.05347589017631</v>
       </c>
       <c r="E15">
-        <v>1.025013384913888</v>
+        <v>1.067251037744813</v>
       </c>
       <c r="F15">
-        <v>1.029063390385921</v>
+        <v>1.074213440957553</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051679772088551</v>
+        <v>1.051398346022993</v>
       </c>
       <c r="J15">
-        <v>1.035539544974237</v>
+        <v>1.059981940974401</v>
       </c>
       <c r="K15">
-        <v>1.038850892028872</v>
+        <v>1.056963915165446</v>
       </c>
       <c r="L15">
-        <v>1.039409118238753</v>
+        <v>1.070690776367321</v>
       </c>
       <c r="M15">
-        <v>1.043388262895876</v>
+        <v>1.077629292321613</v>
       </c>
       <c r="N15">
-        <v>1.014181085048181</v>
+        <v>1.023562100784175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010593461708459</v>
+        <v>1.054292393983231</v>
       </c>
       <c r="D16">
-        <v>1.027455187305831</v>
+        <v>1.05402443947486</v>
       </c>
       <c r="E16">
-        <v>1.028771758023057</v>
+        <v>1.067962541790606</v>
       </c>
       <c r="F16">
-        <v>1.033033912900068</v>
+        <v>1.074971103989677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053377088898499</v>
+        <v>1.05165202021793</v>
       </c>
       <c r="J16">
-        <v>1.038317531032339</v>
+        <v>1.060485793352361</v>
       </c>
       <c r="K16">
-        <v>1.041310537910886</v>
+        <v>1.057398922735836</v>
       </c>
       <c r="L16">
-        <v>1.042605048843728</v>
+        <v>1.071289887693257</v>
       </c>
       <c r="M16">
-        <v>1.046796285654945</v>
+        <v>1.078275254278412</v>
       </c>
       <c r="N16">
-        <v>1.015177096088441</v>
+        <v>1.023738629025845</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013066295214908</v>
+        <v>1.054743267398088</v>
       </c>
       <c r="D17">
-        <v>1.02931485107361</v>
+        <v>1.05436844815731</v>
       </c>
       <c r="E17">
-        <v>1.031094099237331</v>
+        <v>1.068408896726027</v>
       </c>
       <c r="F17">
-        <v>1.035487498277518</v>
+        <v>1.075446456840004</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054421718818954</v>
+        <v>1.051810687345711</v>
       </c>
       <c r="J17">
-        <v>1.040031452444489</v>
+        <v>1.060801591957335</v>
       </c>
       <c r="K17">
-        <v>1.042827692993219</v>
+        <v>1.057671499547058</v>
       </c>
       <c r="L17">
-        <v>1.044578049919815</v>
+        <v>1.071665550331707</v>
       </c>
       <c r="M17">
-        <v>1.048900654802574</v>
+        <v>1.078680353486087</v>
       </c>
       <c r="N17">
-        <v>1.015791394302509</v>
+        <v>1.023849188688367</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.014494782741909</v>
+        <v>1.055006227696779</v>
       </c>
       <c r="D18">
-        <v>1.030389637063677</v>
+        <v>1.05456907332892</v>
       </c>
       <c r="E18">
-        <v>1.032436426731988</v>
+        <v>1.068669265452977</v>
       </c>
       <c r="F18">
-        <v>1.036905745163421</v>
+        <v>1.075723755330138</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055024016087576</v>
+        <v>1.05190307105741</v>
       </c>
       <c r="J18">
-        <v>1.04102116123739</v>
+        <v>1.060985700490397</v>
       </c>
       <c r="K18">
-        <v>1.043703643127688</v>
+        <v>1.05783038403128</v>
       </c>
       <c r="L18">
-        <v>1.04571780714345</v>
+        <v>1.071884616456045</v>
       </c>
       <c r="M18">
-        <v>1.050116457910443</v>
+        <v>1.078916606944004</v>
       </c>
       <c r="N18">
-        <v>1.016146041700783</v>
+        <v>1.023913614411843</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.01497955147909</v>
+        <v>1.055095885916459</v>
       </c>
       <c r="D19">
-        <v>1.030754457895571</v>
+        <v>1.05463747638221</v>
       </c>
       <c r="E19">
-        <v>1.032892085990139</v>
+        <v>1.068758047458856</v>
       </c>
       <c r="F19">
-        <v>1.037387186044599</v>
+        <v>1.075818312627965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055228212636401</v>
+        <v>1.051934543693127</v>
       </c>
       <c r="J19">
-        <v>1.041356961340672</v>
+        <v>1.061048461262299</v>
       </c>
       <c r="K19">
-        <v>1.044000822391447</v>
+        <v>1.057884541755827</v>
       </c>
       <c r="L19">
-        <v>1.046104592670343</v>
+        <v>1.071959303637948</v>
       </c>
       <c r="M19">
-        <v>1.05052907708217</v>
+        <v>1.078997157530933</v>
       </c>
       <c r="N19">
-        <v>1.016266356331065</v>
+        <v>1.023935571433345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012802429420934</v>
+        <v>1.054694895705096</v>
       </c>
       <c r="D20">
-        <v>1.029116360466123</v>
+        <v>1.054331542313655</v>
       </c>
       <c r="E20">
-        <v>1.030846210917864</v>
+        <v>1.068361005270504</v>
       </c>
       <c r="F20">
-        <v>1.035225594777125</v>
+        <v>1.075395452552729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054310370364144</v>
+        <v>1.051793680846479</v>
       </c>
       <c r="J20">
-        <v>1.039848605651376</v>
+        <v>1.060767719222153</v>
       </c>
       <c r="K20">
-        <v>1.042665851820851</v>
+        <v>1.057642265496742</v>
       </c>
       <c r="L20">
-        <v>1.044367517794975</v>
+        <v>1.071625250624962</v>
       </c>
       <c r="M20">
-        <v>1.048676088520955</v>
+        <v>1.078636893706723</v>
       </c>
       <c r="N20">
-        <v>1.015725867188491</v>
+        <v>1.02383733308263</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005557870971294</v>
+        <v>1.053390921853248</v>
       </c>
       <c r="D21">
-        <v>1.023671794480728</v>
+        <v>1.053336575579088</v>
       </c>
       <c r="E21">
-        <v>1.024047837624493</v>
+        <v>1.067070384831042</v>
       </c>
       <c r="F21">
-        <v>1.02804338590804</v>
+        <v>1.074021080620817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051242424799355</v>
+        <v>1.051333791582962</v>
       </c>
       <c r="J21">
-        <v>1.034825043859108</v>
+        <v>1.059853922536561</v>
       </c>
       <c r="K21">
-        <v>1.038218159500941</v>
+        <v>1.056853366571002</v>
       </c>
       <c r="L21">
-        <v>1.03858750288222</v>
+        <v>1.070538603571415</v>
       </c>
       <c r="M21">
-        <v>1.042512257056492</v>
+        <v>1.077465237976466</v>
       </c>
       <c r="N21">
-        <v>1.013924850860113</v>
+        <v>1.023517223183616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000867084751568</v>
+        <v>1.052570810379477</v>
       </c>
       <c r="D22">
-        <v>1.020151925917465</v>
+        <v>1.052710732346287</v>
       </c>
       <c r="E22">
-        <v>1.019653605033942</v>
+        <v>1.066259068729283</v>
       </c>
       <c r="F22">
-        <v>1.023401520046923</v>
+        <v>1.073157247496061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049245646111203</v>
+        <v>1.051043158071513</v>
       </c>
       <c r="J22">
-        <v>1.031569267572441</v>
+        <v>1.059278551287191</v>
       </c>
       <c r="K22">
-        <v>1.035334467951704</v>
+        <v>1.056356403481299</v>
       </c>
       <c r="L22">
-        <v>1.034845522097851</v>
+        <v>1.069854912934745</v>
       </c>
       <c r="M22">
-        <v>1.038523218837486</v>
+        <v>1.076728255726568</v>
       </c>
       <c r="N22">
-        <v>1.012757008850155</v>
+        <v>1.023315398584836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003367192082045</v>
+        <v>1.053005591411328</v>
       </c>
       <c r="D23">
-        <v>1.022027407322744</v>
+        <v>1.053042529319513</v>
       </c>
       <c r="E23">
-        <v>1.021994911480708</v>
+        <v>1.066689149133818</v>
       </c>
       <c r="F23">
-        <v>1.025874729439197</v>
+        <v>1.073615154874346</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050310843135248</v>
+        <v>1.051197369155994</v>
       </c>
       <c r="J23">
-        <v>1.033304806525652</v>
+        <v>1.05958364558871</v>
       </c>
       <c r="K23">
-        <v>1.036871762615427</v>
+        <v>1.056619943429202</v>
       </c>
       <c r="L23">
-        <v>1.03683986082879</v>
+        <v>1.070217395463712</v>
       </c>
       <c r="M23">
-        <v>1.040649097880677</v>
+        <v>1.077118974330423</v>
       </c>
       <c r="N23">
-        <v>1.013379593153109</v>
+        <v>1.023422442665455</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.012921701776942</v>
+        <v>1.054716752872527</v>
       </c>
       <c r="D24">
-        <v>1.029206080420951</v>
+        <v>1.054348218566005</v>
       </c>
       <c r="E24">
-        <v>1.030958258751158</v>
+        <v>1.068382645303495</v>
       </c>
       <c r="F24">
-        <v>1.035343977417604</v>
+        <v>1.075418499091633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054360705575929</v>
+        <v>1.05180136585841</v>
       </c>
       <c r="J24">
-        <v>1.039931257050333</v>
+        <v>1.06078302513539</v>
       </c>
       <c r="K24">
-        <v>1.042739008566632</v>
+        <v>1.057655475429751</v>
       </c>
       <c r="L24">
-        <v>1.044462682295017</v>
+        <v>1.071643460486635</v>
       </c>
       <c r="M24">
-        <v>1.048777596235811</v>
+        <v>1.078656531415148</v>
       </c>
       <c r="N24">
-        <v>1.015755487362426</v>
+        <v>1.023842690311583</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02346927056801</v>
+        <v>1.056701425795052</v>
       </c>
       <c r="D25">
-        <v>1.037150148997127</v>
+        <v>1.055862252125266</v>
       </c>
       <c r="E25">
-        <v>1.040882794786859</v>
+        <v>1.070348542189831</v>
       </c>
       <c r="F25">
-        <v>1.045830986048656</v>
+        <v>1.07751248777339</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05878691936839</v>
+        <v>1.052495833633237</v>
       </c>
       <c r="J25">
-        <v>1.047231816355771</v>
+        <v>1.062171254515637</v>
       </c>
       <c r="K25">
-        <v>1.049197885342529</v>
+        <v>1.058853038107766</v>
       </c>
       <c r="L25">
-        <v>1.052877956765625</v>
+        <v>1.073296312014526</v>
       </c>
       <c r="M25">
-        <v>1.057757182344646</v>
+        <v>1.080439449404785</v>
       </c>
       <c r="N25">
-        <v>1.018369913946215</v>
+        <v>1.024327938530102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058283626036012</v>
+        <v>1.031496644988021</v>
       </c>
       <c r="D2">
-        <v>1.057068940049686</v>
+        <v>1.043208285273007</v>
       </c>
       <c r="E2">
-        <v>1.071917139059091</v>
+        <v>1.048457547731655</v>
       </c>
       <c r="F2">
-        <v>1.079183756150517</v>
+        <v>1.053837277623483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053044569886574</v>
+        <v>1.062118108819269</v>
       </c>
       <c r="J2">
-        <v>1.063275649752193</v>
+        <v>1.052774443620072</v>
       </c>
       <c r="K2">
-        <v>1.059804921180433</v>
+        <v>1.054096773536322</v>
       </c>
       <c r="L2">
-        <v>1.074613038059806</v>
+        <v>1.059280678292027</v>
       </c>
       <c r="M2">
-        <v>1.081860473541999</v>
+        <v>1.064594266101877</v>
       </c>
       <c r="N2">
-        <v>1.024713022826894</v>
+        <v>1.020351583284931</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059432031319226</v>
+        <v>1.037123600483115</v>
       </c>
       <c r="D3">
-        <v>1.057944592456873</v>
+        <v>1.047460485847669</v>
       </c>
       <c r="E3">
-        <v>1.073056454274037</v>
+        <v>1.053778776182808</v>
       </c>
       <c r="F3">
-        <v>1.080397916716307</v>
+        <v>1.05946312827533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053440013948049</v>
+        <v>1.064430687081573</v>
       </c>
       <c r="J3">
-        <v>1.064075903650775</v>
+        <v>1.056650971213513</v>
       </c>
       <c r="K3">
-        <v>1.060494179694598</v>
+        <v>1.057520085173981</v>
       </c>
       <c r="L3">
-        <v>1.075568202058651</v>
+        <v>1.063766856711201</v>
       </c>
       <c r="M3">
-        <v>1.082891692691552</v>
+        <v>1.069387762377398</v>
       </c>
       <c r="N3">
-        <v>1.024991502360548</v>
+        <v>1.021735386174326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06017494666825</v>
+        <v>1.040677802646073</v>
       </c>
       <c r="D4">
-        <v>1.058510966221081</v>
+        <v>1.05014851141255</v>
       </c>
       <c r="E4">
-        <v>1.073793849110387</v>
+        <v>1.057144942728021</v>
       </c>
       <c r="F4">
-        <v>1.08118387992226</v>
+        <v>1.063022728928998</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053694514040123</v>
+        <v>1.065880730693312</v>
       </c>
       <c r="J4">
-        <v>1.064592971287492</v>
+        <v>1.059095252308806</v>
       </c>
       <c r="K4">
-        <v>1.06093930496347</v>
+        <v>1.059677139447977</v>
       </c>
       <c r="L4">
-        <v>1.076185849951639</v>
+        <v>1.066599334733301</v>
       </c>
       <c r="M4">
-        <v>1.083558704693529</v>
+        <v>1.07241567668363</v>
       </c>
       <c r="N4">
-        <v>1.02517117764816</v>
+        <v>1.022606809601975</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060487226575748</v>
+        <v>1.042152099507567</v>
       </c>
       <c r="D5">
-        <v>1.058749014571406</v>
+        <v>1.051263975647559</v>
       </c>
       <c r="E5">
-        <v>1.07410389428719</v>
+        <v>1.058542421987775</v>
       </c>
       <c r="F5">
-        <v>1.081514376526685</v>
+        <v>1.064500696568263</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053801176207149</v>
+        <v>1.066479615323368</v>
       </c>
       <c r="J5">
-        <v>1.064810167627041</v>
+        <v>1.060108084446178</v>
       </c>
       <c r="K5">
-        <v>1.061126227583128</v>
+        <v>1.060570592369015</v>
       </c>
       <c r="L5">
-        <v>1.076445412477816</v>
+        <v>1.067773940414698</v>
       </c>
       <c r="M5">
-        <v>1.083839056210711</v>
+        <v>1.073671668674309</v>
       </c>
       <c r="N5">
-        <v>1.02524658885322</v>
+        <v>1.022967618334402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060539657338726</v>
+        <v>1.042398499055674</v>
       </c>
       <c r="D6">
-        <v>1.058788980710869</v>
+        <v>1.051450428813218</v>
       </c>
       <c r="E6">
-        <v>1.074155954865353</v>
+        <v>1.05877605135265</v>
       </c>
       <c r="F6">
-        <v>1.081569872945652</v>
+        <v>1.064747792903235</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05381906593335</v>
+        <v>1.06657955311187</v>
       </c>
       <c r="J6">
-        <v>1.064846625377814</v>
+        <v>1.060277295608107</v>
       </c>
       <c r="K6">
-        <v>1.0611576005281</v>
+        <v>1.060719837570926</v>
       </c>
       <c r="L6">
-        <v>1.076488988524149</v>
+        <v>1.067970232799581</v>
       </c>
       <c r="M6">
-        <v>1.083886124952481</v>
+        <v>1.07388158193945</v>
       </c>
       <c r="N6">
-        <v>1.025259243441272</v>
+        <v>1.023027880717073</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060179119529886</v>
+        <v>1.040697579283804</v>
       </c>
       <c r="D7">
-        <v>1.058514147251188</v>
+        <v>1.050163472823271</v>
       </c>
       <c r="E7">
-        <v>1.073797991773685</v>
+        <v>1.057163684293972</v>
       </c>
       <c r="F7">
-        <v>1.081188295727562</v>
+        <v>1.063042549188682</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053695940560123</v>
+        <v>1.065888774627489</v>
       </c>
       <c r="J7">
-        <v>1.064595874177678</v>
+        <v>1.059108842986515</v>
       </c>
       <c r="K7">
-        <v>1.060941803449511</v>
+        <v>1.059689129681958</v>
       </c>
       <c r="L7">
-        <v>1.076189318617561</v>
+        <v>1.066615092530623</v>
       </c>
       <c r="M7">
-        <v>1.083562451000144</v>
+        <v>1.072432524958949</v>
       </c>
       <c r="N7">
-        <v>1.025172185784595</v>
+        <v>1.022611652242308</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058671772963881</v>
+        <v>1.03341683253051</v>
       </c>
       <c r="D8">
-        <v>1.057364919099344</v>
+        <v>1.044658846077407</v>
       </c>
       <c r="E8">
-        <v>1.072302138879742</v>
+        <v>1.050272316749559</v>
       </c>
       <c r="F8">
-        <v>1.079594021734451</v>
+        <v>1.055755786892968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053178497748706</v>
+        <v>1.06290949024372</v>
       </c>
       <c r="J8">
-        <v>1.063546255043376</v>
+        <v>1.054098178014885</v>
       </c>
       <c r="K8">
-        <v>1.06003803998313</v>
+        <v>1.055266046215874</v>
       </c>
       <c r="L8">
-        <v>1.074935924981564</v>
+        <v>1.060811799260392</v>
       </c>
       <c r="M8">
-        <v>1.082209032374974</v>
+        <v>1.066229981460243</v>
       </c>
       <c r="N8">
-        <v>1.024807243937719</v>
+        <v>1.020824340949976</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.056014201032121</v>
+        <v>1.019879090669742</v>
       </c>
       <c r="D9">
-        <v>1.055338040625823</v>
+        <v>1.034444007865246</v>
       </c>
       <c r="E9">
-        <v>1.06966760656963</v>
+        <v>1.037501132937937</v>
       </c>
       <c r="F9">
-        <v>1.076787112510216</v>
+        <v>1.04225733897232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052256121220701</v>
+        <v>1.057286142210708</v>
       </c>
       <c r="J9">
-        <v>1.061690915490965</v>
+        <v>1.044748881408826</v>
       </c>
       <c r="K9">
-        <v>1.058438799351482</v>
+        <v>1.047001923430275</v>
       </c>
       <c r="L9">
-        <v>1.072724130918441</v>
+        <v>1.050013731179208</v>
       </c>
       <c r="M9">
-        <v>1.079822136643628</v>
+        <v>1.05470010416492</v>
       </c>
       <c r="N9">
-        <v>1.024160185417292</v>
+        <v>1.017481207551716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.054241437317015</v>
+        <v>1.010312095561879</v>
       </c>
       <c r="D10">
-        <v>1.053985559207882</v>
+        <v>1.027243661252033</v>
       </c>
       <c r="E10">
-        <v>1.067912101718148</v>
+        <v>1.028507622655439</v>
       </c>
       <c r="F10">
-        <v>1.074917389003522</v>
+        <v>1.032754858098996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051634067082671</v>
+        <v>1.053258071275119</v>
       </c>
       <c r="J10">
-        <v>1.060450092673482</v>
+        <v>1.038122466075066</v>
       </c>
       <c r="K10">
-        <v>1.05736810471349</v>
+        <v>1.041137849228875</v>
       </c>
       <c r="L10">
-        <v>1.071247427199458</v>
+        <v>1.042380557722889</v>
       </c>
       <c r="M10">
-        <v>1.078229469531714</v>
+        <v>1.046556868673275</v>
       </c>
       <c r="N10">
-        <v>1.023726126345329</v>
+        <v>1.015107170969241</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.053473542661607</v>
+        <v>1.006024564994314</v>
       </c>
       <c r="D11">
-        <v>1.053399621989384</v>
+        <v>1.024022230615076</v>
       </c>
       <c r="E11">
-        <v>1.067152136429127</v>
+        <v>1.024485354204777</v>
       </c>
       <c r="F11">
-        <v>1.074108129605765</v>
+        <v>1.028505576422981</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051363011933788</v>
+        <v>1.051440663419947</v>
       </c>
       <c r="J11">
-        <v>1.059911859670331</v>
+        <v>1.035148845111739</v>
       </c>
       <c r="K11">
-        <v>1.056903398505288</v>
+        <v>1.038504909720269</v>
       </c>
       <c r="L11">
-        <v>1.070607469772518</v>
+        <v>1.038959827802828</v>
       </c>
       <c r="M11">
-        <v>1.077539480288031</v>
+        <v>1.042909223034748</v>
       </c>
       <c r="N11">
-        <v>1.023537534644838</v>
+        <v>1.014040975134476</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.053188269104125</v>
+        <v>1.004408657307723</v>
       </c>
       <c r="D12">
-        <v>1.053181932524826</v>
+        <v>1.022809042993154</v>
       </c>
       <c r="E12">
-        <v>1.066869877208678</v>
+        <v>1.022970725231912</v>
       </c>
       <c r="F12">
-        <v>1.07380758472052</v>
+        <v>1.026905543985939</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051262073733321</v>
+        <v>1.050753936146609</v>
       </c>
       <c r="J12">
-        <v>1.059711792425879</v>
+        <v>1.034027599737684</v>
       </c>
       <c r="K12">
-        <v>1.056730621621374</v>
+        <v>1.037511926664282</v>
       </c>
       <c r="L12">
-        <v>1.070369679524328</v>
+        <v>1.037670688934511</v>
       </c>
       <c r="M12">
-        <v>1.077283133091768</v>
+        <v>1.041534813296509</v>
       </c>
       <c r="N12">
-        <v>1.023467386726176</v>
+        <v>1.013638846125916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.053249463238329</v>
+        <v>1.004756357099697</v>
       </c>
       <c r="D13">
-        <v>1.053228629759162</v>
+        <v>1.023070044911867</v>
       </c>
       <c r="E13">
-        <v>1.066930421626419</v>
+        <v>1.023296572514349</v>
       </c>
       <c r="F13">
-        <v>1.073872050375814</v>
+        <v>1.027249760960282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051283736925471</v>
+        <v>1.050901780420469</v>
       </c>
       <c r="J13">
-        <v>1.05975471404119</v>
+        <v>1.034268884497192</v>
       </c>
       <c r="K13">
-        <v>1.056767690297467</v>
+        <v>1.037725618785219</v>
       </c>
       <c r="L13">
-        <v>1.070420690049944</v>
+        <v>1.037948072013878</v>
       </c>
       <c r="M13">
-        <v>1.077338122921364</v>
+        <v>1.041830533078587</v>
       </c>
       <c r="N13">
-        <v>1.023482438066153</v>
+        <v>1.013725386076631</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.053449962753826</v>
+        <v>1.005891478917585</v>
       </c>
       <c r="D14">
-        <v>1.053381628658428</v>
+        <v>1.023922293200128</v>
       </c>
       <c r="E14">
-        <v>1.067128804276658</v>
+        <v>1.024360582535063</v>
       </c>
       <c r="F14">
-        <v>1.074083285458576</v>
+        <v>1.028373767842717</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051354673581546</v>
+        <v>1.051384140240153</v>
       </c>
       <c r="J14">
-        <v>1.059895324983703</v>
+        <v>1.035056509819406</v>
       </c>
       <c r="K14">
-        <v>1.056889120070569</v>
+        <v>1.038423140799426</v>
       </c>
       <c r="L14">
-        <v>1.070587815627237</v>
+        <v>1.03885365229868</v>
       </c>
       <c r="M14">
-        <v>1.077518291667522</v>
+        <v>1.042796019547773</v>
       </c>
       <c r="N14">
-        <v>1.023531738167162</v>
+        <v>1.014007861551327</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053573491332615</v>
+        <v>1.00658772495956</v>
       </c>
       <c r="D15">
-        <v>1.05347589017631</v>
+        <v>1.024445158646541</v>
       </c>
       <c r="E15">
-        <v>1.067251037744813</v>
+        <v>1.025013384913888</v>
       </c>
       <c r="F15">
-        <v>1.074213440957553</v>
+        <v>1.029063390385921</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051398346022993</v>
+        <v>1.051679772088551</v>
       </c>
       <c r="J15">
-        <v>1.059981940974401</v>
+        <v>1.035539544974237</v>
       </c>
       <c r="K15">
-        <v>1.056963915165446</v>
+        <v>1.038850892028873</v>
       </c>
       <c r="L15">
-        <v>1.070690776367321</v>
+        <v>1.039409118238753</v>
       </c>
       <c r="M15">
-        <v>1.077629292321613</v>
+        <v>1.043388262895876</v>
       </c>
       <c r="N15">
-        <v>1.023562100784175</v>
+        <v>1.01418108504818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054292393983231</v>
+        <v>1.01059346170846</v>
       </c>
       <c r="D16">
-        <v>1.05402443947486</v>
+        <v>1.027455187305833</v>
       </c>
       <c r="E16">
-        <v>1.067962541790606</v>
+        <v>1.028771758023058</v>
       </c>
       <c r="F16">
-        <v>1.074971103989677</v>
+        <v>1.033033912900069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05165202021793</v>
+        <v>1.0533770888985</v>
       </c>
       <c r="J16">
-        <v>1.060485793352361</v>
+        <v>1.038317531032341</v>
       </c>
       <c r="K16">
-        <v>1.057398922735836</v>
+        <v>1.041310537910887</v>
       </c>
       <c r="L16">
-        <v>1.071289887693257</v>
+        <v>1.042605048843729</v>
       </c>
       <c r="M16">
-        <v>1.078275254278412</v>
+        <v>1.046796285654946</v>
       </c>
       <c r="N16">
-        <v>1.023738629025845</v>
+        <v>1.015177096088441</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054743267398088</v>
+        <v>1.013066295214906</v>
       </c>
       <c r="D17">
-        <v>1.05436844815731</v>
+        <v>1.029314851073608</v>
       </c>
       <c r="E17">
-        <v>1.068408896726027</v>
+        <v>1.031094099237329</v>
       </c>
       <c r="F17">
-        <v>1.075446456840004</v>
+        <v>1.035487498277516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051810687345711</v>
+        <v>1.054421718818952</v>
       </c>
       <c r="J17">
-        <v>1.060801591957335</v>
+        <v>1.040031452444487</v>
       </c>
       <c r="K17">
-        <v>1.057671499547058</v>
+        <v>1.042827692993217</v>
       </c>
       <c r="L17">
-        <v>1.071665550331707</v>
+        <v>1.044578049919813</v>
       </c>
       <c r="M17">
-        <v>1.078680353486087</v>
+        <v>1.048900654802572</v>
       </c>
       <c r="N17">
-        <v>1.023849188688367</v>
+        <v>1.015791394302508</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055006227696779</v>
+        <v>1.014494782741909</v>
       </c>
       <c r="D18">
-        <v>1.05456907332892</v>
+        <v>1.030389637063677</v>
       </c>
       <c r="E18">
-        <v>1.068669265452977</v>
+        <v>1.032436426731988</v>
       </c>
       <c r="F18">
-        <v>1.075723755330138</v>
+        <v>1.036905745163422</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05190307105741</v>
+        <v>1.055024016087576</v>
       </c>
       <c r="J18">
-        <v>1.060985700490397</v>
+        <v>1.04102116123739</v>
       </c>
       <c r="K18">
-        <v>1.05783038403128</v>
+        <v>1.043703643127688</v>
       </c>
       <c r="L18">
-        <v>1.071884616456045</v>
+        <v>1.045717807143451</v>
       </c>
       <c r="M18">
-        <v>1.078916606944004</v>
+        <v>1.050116457910444</v>
       </c>
       <c r="N18">
-        <v>1.023913614411843</v>
+        <v>1.016146041700783</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055095885916459</v>
+        <v>1.014979551479088</v>
       </c>
       <c r="D19">
-        <v>1.05463747638221</v>
+        <v>1.03075445789557</v>
       </c>
       <c r="E19">
-        <v>1.068758047458856</v>
+        <v>1.032892085990137</v>
       </c>
       <c r="F19">
-        <v>1.075818312627965</v>
+        <v>1.037387186044598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051934543693127</v>
+        <v>1.0552282126364</v>
       </c>
       <c r="J19">
-        <v>1.061048461262299</v>
+        <v>1.041356961340671</v>
       </c>
       <c r="K19">
-        <v>1.057884541755827</v>
+        <v>1.044000822391446</v>
       </c>
       <c r="L19">
-        <v>1.071959303637948</v>
+        <v>1.046104592670342</v>
       </c>
       <c r="M19">
-        <v>1.078997157530933</v>
+        <v>1.050529077082168</v>
       </c>
       <c r="N19">
-        <v>1.023935571433345</v>
+        <v>1.016266356331064</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054694895705096</v>
+        <v>1.012802429420935</v>
       </c>
       <c r="D20">
-        <v>1.054331542313655</v>
+        <v>1.029116360466122</v>
       </c>
       <c r="E20">
-        <v>1.068361005270504</v>
+        <v>1.030846210917864</v>
       </c>
       <c r="F20">
-        <v>1.075395452552729</v>
+        <v>1.035225594777125</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051793680846479</v>
+        <v>1.054310370364145</v>
       </c>
       <c r="J20">
-        <v>1.060767719222153</v>
+        <v>1.039848605651377</v>
       </c>
       <c r="K20">
-        <v>1.057642265496742</v>
+        <v>1.042665851820851</v>
       </c>
       <c r="L20">
-        <v>1.071625250624962</v>
+        <v>1.044367517794975</v>
       </c>
       <c r="M20">
-        <v>1.078636893706723</v>
+        <v>1.048676088520955</v>
       </c>
       <c r="N20">
-        <v>1.02383733308263</v>
+        <v>1.015725867188491</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.053390921853248</v>
+        <v>1.005557870971294</v>
       </c>
       <c r="D21">
-        <v>1.053336575579088</v>
+        <v>1.023671794480728</v>
       </c>
       <c r="E21">
-        <v>1.067070384831042</v>
+        <v>1.024047837624494</v>
       </c>
       <c r="F21">
-        <v>1.074021080620817</v>
+        <v>1.02804338590804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051333791582962</v>
+        <v>1.051242424799355</v>
       </c>
       <c r="J21">
-        <v>1.059853922536561</v>
+        <v>1.034825043859108</v>
       </c>
       <c r="K21">
-        <v>1.056853366571002</v>
+        <v>1.038218159500941</v>
       </c>
       <c r="L21">
-        <v>1.070538603571415</v>
+        <v>1.03858750288222</v>
       </c>
       <c r="M21">
-        <v>1.077465237976466</v>
+        <v>1.042512257056492</v>
       </c>
       <c r="N21">
-        <v>1.023517223183616</v>
+        <v>1.013924850860113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052570810379477</v>
+        <v>1.000867084751569</v>
       </c>
       <c r="D22">
-        <v>1.052710732346287</v>
+        <v>1.020151925917465</v>
       </c>
       <c r="E22">
-        <v>1.066259068729283</v>
+        <v>1.019653605033943</v>
       </c>
       <c r="F22">
-        <v>1.073157247496061</v>
+        <v>1.023401520046924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051043158071513</v>
+        <v>1.049245646111203</v>
       </c>
       <c r="J22">
-        <v>1.059278551287191</v>
+        <v>1.031569267572441</v>
       </c>
       <c r="K22">
-        <v>1.056356403481299</v>
+        <v>1.035334467951705</v>
       </c>
       <c r="L22">
-        <v>1.069854912934745</v>
+        <v>1.034845522097852</v>
       </c>
       <c r="M22">
-        <v>1.076728255726568</v>
+        <v>1.038523218837487</v>
       </c>
       <c r="N22">
-        <v>1.023315398584836</v>
+        <v>1.012757008850155</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053005591411328</v>
+        <v>1.003367192082045</v>
       </c>
       <c r="D23">
-        <v>1.053042529319513</v>
+        <v>1.022027407322744</v>
       </c>
       <c r="E23">
-        <v>1.066689149133818</v>
+        <v>1.021994911480708</v>
       </c>
       <c r="F23">
-        <v>1.073615154874346</v>
+        <v>1.025874729439197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051197369155994</v>
+        <v>1.050310843135248</v>
       </c>
       <c r="J23">
-        <v>1.05958364558871</v>
+        <v>1.033304806525651</v>
       </c>
       <c r="K23">
-        <v>1.056619943429202</v>
+        <v>1.036871762615427</v>
       </c>
       <c r="L23">
-        <v>1.070217395463712</v>
+        <v>1.03683986082879</v>
       </c>
       <c r="M23">
-        <v>1.077118974330423</v>
+        <v>1.040649097880678</v>
       </c>
       <c r="N23">
-        <v>1.023422442665455</v>
+        <v>1.013379593153109</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054716752872527</v>
+        <v>1.012921701776943</v>
       </c>
       <c r="D24">
-        <v>1.054348218566005</v>
+        <v>1.029206080420951</v>
       </c>
       <c r="E24">
-        <v>1.068382645303495</v>
+        <v>1.030958258751158</v>
       </c>
       <c r="F24">
-        <v>1.075418499091633</v>
+        <v>1.035343977417604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05180136585841</v>
+        <v>1.05436070557593</v>
       </c>
       <c r="J24">
-        <v>1.06078302513539</v>
+        <v>1.039931257050333</v>
       </c>
       <c r="K24">
-        <v>1.057655475429751</v>
+        <v>1.042739008566632</v>
       </c>
       <c r="L24">
-        <v>1.071643460486635</v>
+        <v>1.044462682295017</v>
       </c>
       <c r="M24">
-        <v>1.078656531415148</v>
+        <v>1.048777596235811</v>
       </c>
       <c r="N24">
-        <v>1.023842690311583</v>
+        <v>1.015755487362426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056701425795052</v>
+        <v>1.023469270568012</v>
       </c>
       <c r="D25">
-        <v>1.055862252125266</v>
+        <v>1.037150148997129</v>
       </c>
       <c r="E25">
-        <v>1.070348542189831</v>
+        <v>1.04088279478686</v>
       </c>
       <c r="F25">
-        <v>1.07751248777339</v>
+        <v>1.045830986048657</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052495833633237</v>
+        <v>1.058786919368392</v>
       </c>
       <c r="J25">
-        <v>1.062171254515637</v>
+        <v>1.047231816355773</v>
       </c>
       <c r="K25">
-        <v>1.058853038107766</v>
+        <v>1.049197885342531</v>
       </c>
       <c r="L25">
-        <v>1.073296312014526</v>
+        <v>1.052877956765627</v>
       </c>
       <c r="M25">
-        <v>1.080439449404785</v>
+        <v>1.057757182344648</v>
       </c>
       <c r="N25">
-        <v>1.024327938530102</v>
+        <v>1.018369913946215</v>
       </c>
     </row>
   </sheetData>
